--- a/data/pca/factorExposure/factorExposure_2017-11-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02289321125753759</v>
+        <v>-0.01383231638261137</v>
       </c>
       <c r="C2">
-        <v>-0.002766662749374268</v>
+        <v>0.03736800796182353</v>
       </c>
       <c r="D2">
-        <v>-0.01154657257782972</v>
+        <v>0.02848417464675072</v>
       </c>
       <c r="E2">
-        <v>-0.01269272371980419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03217471772744438</v>
+      </c>
+      <c r="F2">
+        <v>-0.03090761342072898</v>
+      </c>
+      <c r="G2">
+        <v>-0.01723698227286342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01259022038791631</v>
+        <v>-0.05141154068388868</v>
       </c>
       <c r="C3">
-        <v>0.0518215129777337</v>
+        <v>0.0770461056367743</v>
       </c>
       <c r="D3">
-        <v>0.02468145702156751</v>
+        <v>0.0148545578120273</v>
       </c>
       <c r="E3">
-        <v>0.01542489325608815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08681191326900242</v>
+      </c>
+      <c r="F3">
+        <v>-0.05711710051245499</v>
+      </c>
+      <c r="G3">
+        <v>-0.07242373199630393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02223151343206214</v>
+        <v>-0.0534635315094561</v>
       </c>
       <c r="C4">
-        <v>0.02999329384676971</v>
+        <v>0.06516921314810739</v>
       </c>
       <c r="D4">
-        <v>-0.04884125906572574</v>
+        <v>0.02251868433886096</v>
       </c>
       <c r="E4">
-        <v>0.001246283934287061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.005344222412679424</v>
+      </c>
+      <c r="F4">
+        <v>-0.01632418376002729</v>
+      </c>
+      <c r="G4">
+        <v>-0.0465309338533507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01522028988895028</v>
+        <v>-0.03149630097822444</v>
       </c>
       <c r="C6">
-        <v>0.04811923552870973</v>
+        <v>0.05400379307826561</v>
       </c>
       <c r="D6">
-        <v>-0.05380321207460998</v>
+        <v>0.01638239438942161</v>
       </c>
       <c r="E6">
-        <v>-0.0163816915584792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.009377181756020713</v>
+      </c>
+      <c r="F6">
+        <v>-0.01737963768183125</v>
+      </c>
+      <c r="G6">
+        <v>-0.02726172593296044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01052056110522952</v>
+        <v>-0.01898104213347311</v>
       </c>
       <c r="C7">
-        <v>0.01920826687955033</v>
+        <v>0.03807436876891521</v>
       </c>
       <c r="D7">
-        <v>-0.03851804647288429</v>
+        <v>0.01244489482897803</v>
       </c>
       <c r="E7">
-        <v>0.06062309425121712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01066204668889697</v>
+      </c>
+      <c r="F7">
+        <v>-0.01172105591933672</v>
+      </c>
+      <c r="G7">
+        <v>-0.07839334366393719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007127871820800133</v>
+        <v>0.002948567283073991</v>
       </c>
       <c r="C8">
-        <v>-0.01446759695897135</v>
+        <v>0.0145634851769397</v>
       </c>
       <c r="D8">
-        <v>-0.02408244781076752</v>
+        <v>0.003858061125414063</v>
       </c>
       <c r="E8">
-        <v>-0.001857957129122749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01779117857616153</v>
+      </c>
+      <c r="F8">
+        <v>-0.01881046702890581</v>
+      </c>
+      <c r="G8">
+        <v>-0.02815213226799259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01449418268286465</v>
+        <v>-0.02708009049178514</v>
       </c>
       <c r="C9">
-        <v>0.02492039266342256</v>
+        <v>0.0434713332190528</v>
       </c>
       <c r="D9">
-        <v>-0.02795299513760639</v>
+        <v>0.01573851922688109</v>
       </c>
       <c r="E9">
-        <v>-0.002772281857879911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01035273022408496</v>
+      </c>
+      <c r="F9">
+        <v>-0.0199724768204834</v>
+      </c>
+      <c r="G9">
+        <v>-0.03673511086714586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.007669538052025208</v>
+        <v>-0.09024988111408951</v>
       </c>
       <c r="C10">
-        <v>0.0909225676807619</v>
+        <v>-0.1836364438713495</v>
       </c>
       <c r="D10">
-        <v>0.1410209328436568</v>
+        <v>-0.01851614417342318</v>
       </c>
       <c r="E10">
-        <v>0.0660116682982017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01889706593348737</v>
+      </c>
+      <c r="F10">
+        <v>0.01775315630486591</v>
+      </c>
+      <c r="G10">
+        <v>-0.03664831002584805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-4.044426540224571e-05</v>
+        <v>-0.03513377575161055</v>
       </c>
       <c r="C11">
-        <v>0.01713018204881112</v>
+        <v>0.05305934174605978</v>
       </c>
       <c r="D11">
-        <v>-0.02991647879410127</v>
+        <v>0.001500570528386416</v>
       </c>
       <c r="E11">
-        <v>-0.01951804202944459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.002644050789846473</v>
+      </c>
+      <c r="F11">
+        <v>-0.0250071066074588</v>
+      </c>
+      <c r="G11">
+        <v>-0.01883433788217831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00552853569842379</v>
+        <v>-0.03242893751740239</v>
       </c>
       <c r="C12">
-        <v>0.02694255305557405</v>
+        <v>0.0451417565163656</v>
       </c>
       <c r="D12">
-        <v>-0.0342611557894108</v>
+        <v>0.005595112462560444</v>
       </c>
       <c r="E12">
-        <v>-0.01470213507615326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.005787383956563317</v>
+      </c>
+      <c r="F12">
+        <v>-0.007206670303785957</v>
+      </c>
+      <c r="G12">
+        <v>-0.02146249516995702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02069632811872735</v>
+        <v>-0.01170272799904915</v>
       </c>
       <c r="C13">
-        <v>0.008972217770085762</v>
+        <v>0.03334639165859737</v>
       </c>
       <c r="D13">
-        <v>-0.004623446329384464</v>
+        <v>0.02488726536614221</v>
       </c>
       <c r="E13">
-        <v>-0.006722331315203132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02796861386847774</v>
+      </c>
+      <c r="F13">
+        <v>-0.02169888396085065</v>
+      </c>
+      <c r="G13">
+        <v>-0.03198316977725629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0069195035468481</v>
+        <v>-0.007475539287012485</v>
       </c>
       <c r="C14">
-        <v>0.01368928595108649</v>
+        <v>0.02547208369430246</v>
       </c>
       <c r="D14">
-        <v>-0.01336994027307227</v>
+        <v>0.008267648986789783</v>
       </c>
       <c r="E14">
-        <v>0.009065987774891178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.00526134349628501</v>
+      </c>
+      <c r="F14">
+        <v>-0.002431287010819315</v>
+      </c>
+      <c r="G14">
+        <v>-0.03867634659297312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0005863758895715892</v>
+        <v>-0.03147813851684717</v>
       </c>
       <c r="C16">
-        <v>0.02319953601404577</v>
+        <v>0.04328540302629025</v>
       </c>
       <c r="D16">
-        <v>-0.03769586289509606</v>
+        <v>0.001127005632795492</v>
       </c>
       <c r="E16">
-        <v>-0.0168531141992789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.003651311789411262</v>
+      </c>
+      <c r="F16">
+        <v>-0.01010177243745087</v>
+      </c>
+      <c r="G16">
+        <v>-0.02160758399806422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01183768713104715</v>
+        <v>-0.02781539814228844</v>
       </c>
       <c r="C19">
-        <v>0.01702725085737668</v>
+        <v>0.05510873211457976</v>
       </c>
       <c r="D19">
-        <v>-0.02902805485023337</v>
+        <v>0.01584286574350232</v>
       </c>
       <c r="E19">
-        <v>-0.006915638727237806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04561750045534835</v>
+      </c>
+      <c r="F19">
+        <v>-0.03760064482961961</v>
+      </c>
+      <c r="G19">
+        <v>-0.04142371934776267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009666842708050082</v>
+        <v>-0.01086684721719675</v>
       </c>
       <c r="C20">
-        <v>0.001035071077419552</v>
+        <v>0.03481885385144575</v>
       </c>
       <c r="D20">
-        <v>-0.004451941591976442</v>
+        <v>0.01321326065139399</v>
       </c>
       <c r="E20">
-        <v>0.003093555469096152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02333560458534329</v>
+      </c>
+      <c r="F20">
+        <v>-0.00550459085962488</v>
+      </c>
+      <c r="G20">
+        <v>-0.03226183236903575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01348764195159489</v>
+        <v>-0.01151789058119601</v>
       </c>
       <c r="C21">
-        <v>0.03033760438997681</v>
+        <v>0.0334467256868718</v>
       </c>
       <c r="D21">
-        <v>-0.01807433172661717</v>
+        <v>0.01637290155928701</v>
       </c>
       <c r="E21">
-        <v>0.0146571405292423</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0316219171326422</v>
+      </c>
+      <c r="F21">
+        <v>-0.01940263384964267</v>
+      </c>
+      <c r="G21">
+        <v>-0.05627304857089493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004686048352711619</v>
+        <v>-0.02634764846050306</v>
       </c>
       <c r="C24">
-        <v>0.01915089648424825</v>
+        <v>0.04632243773036228</v>
       </c>
       <c r="D24">
-        <v>-0.03261529050886033</v>
+        <v>0.006361074664439353</v>
       </c>
       <c r="E24">
-        <v>-0.01635113673253726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002482994372034532</v>
+      </c>
+      <c r="F24">
+        <v>-0.02011066406471262</v>
+      </c>
+      <c r="G24">
+        <v>-0.02047341983506362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01090336227950713</v>
+        <v>-0.043228974565754</v>
       </c>
       <c r="C25">
-        <v>0.03202116239540215</v>
+        <v>0.05355348158631255</v>
       </c>
       <c r="D25">
-        <v>-0.03189925745970865</v>
+        <v>0.0102167457388877</v>
       </c>
       <c r="E25">
-        <v>-0.01551731616545384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.009278661533049206</v>
+      </c>
+      <c r="F25">
+        <v>-0.0156557508389714</v>
+      </c>
+      <c r="G25">
+        <v>-0.02653666633959758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02288693293459905</v>
+        <v>-0.007879944045429445</v>
       </c>
       <c r="C26">
-        <v>0.004664940783508134</v>
+        <v>0.009044077828534272</v>
       </c>
       <c r="D26">
-        <v>0.0005318173857615275</v>
+        <v>0.02380632403660398</v>
       </c>
       <c r="E26">
-        <v>0.007156717995970202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01067789695166038</v>
+      </c>
+      <c r="F26">
+        <v>-0.006228177578970396</v>
+      </c>
+      <c r="G26">
+        <v>-0.0272416434019665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02368557365012406</v>
+        <v>-0.1138791573354859</v>
       </c>
       <c r="C28">
-        <v>0.1348473699569236</v>
+        <v>-0.2267779318792822</v>
       </c>
       <c r="D28">
-        <v>0.2171987981831101</v>
+        <v>-0.009868287878604861</v>
       </c>
       <c r="E28">
-        <v>0.1071987857653367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01031316651959366</v>
+      </c>
+      <c r="F28">
+        <v>0.009525863119871178</v>
+      </c>
+      <c r="G28">
+        <v>-0.05449358603796851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006981161732365635</v>
+        <v>-0.01259348736277967</v>
       </c>
       <c r="C29">
-        <v>0.01650170277409972</v>
+        <v>0.01975256498811725</v>
       </c>
       <c r="D29">
-        <v>-0.009507851808151913</v>
+        <v>0.006922130906305999</v>
       </c>
       <c r="E29">
-        <v>0.00533850006329293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.005119984636431065</v>
+      </c>
+      <c r="F29">
+        <v>0.007495185289112308</v>
+      </c>
+      <c r="G29">
+        <v>-0.02970446664225803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02434503556857798</v>
+        <v>-0.03972394456498714</v>
       </c>
       <c r="C30">
-        <v>0.0325475656360607</v>
+        <v>0.07032623129545848</v>
       </c>
       <c r="D30">
-        <v>-0.02705959323077721</v>
+        <v>0.02706727517194907</v>
       </c>
       <c r="E30">
-        <v>-0.07127562668375374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02547707586931679</v>
+      </c>
+      <c r="F30">
+        <v>-0.04562125370511178</v>
+      </c>
+      <c r="G30">
+        <v>-0.00101398136254934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.006374023965932368</v>
+        <v>-0.04390803857343763</v>
       </c>
       <c r="C31">
-        <v>0.05033676927792075</v>
+        <v>0.03104019574769211</v>
       </c>
       <c r="D31">
-        <v>-0.0220749712736562</v>
+        <v>0.003022290365899378</v>
       </c>
       <c r="E31">
-        <v>-0.0003812634669579294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006732023184577276</v>
+      </c>
+      <c r="F31">
+        <v>0.03670331552456587</v>
+      </c>
+      <c r="G31">
+        <v>-0.0272210290882958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.008393819114150569</v>
+        <v>-0.005266595756173432</v>
       </c>
       <c r="C32">
-        <v>-0.004325690101187684</v>
+        <v>0.03162646650127571</v>
       </c>
       <c r="D32">
-        <v>-0.0245442123672546</v>
+        <v>-0.004967090578548334</v>
       </c>
       <c r="E32">
-        <v>0.02009697455429778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01885004870757312</v>
+      </c>
+      <c r="F32">
+        <v>-0.06991429939987419</v>
+      </c>
+      <c r="G32">
+        <v>-0.05083443541289859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01180539322611932</v>
+        <v>-0.0285982059516443</v>
       </c>
       <c r="C33">
-        <v>0.02254930036681219</v>
+        <v>0.04983242940497781</v>
       </c>
       <c r="D33">
-        <v>-0.01242098953000629</v>
+        <v>0.01417017463314784</v>
       </c>
       <c r="E33">
-        <v>-0.03091928806441496</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02386530144331606</v>
+      </c>
+      <c r="F33">
+        <v>-0.02495059947107571</v>
+      </c>
+      <c r="G33">
+        <v>-0.02897024209234061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005204839270806034</v>
+        <v>-0.04536593554603106</v>
       </c>
       <c r="C34">
-        <v>0.02950740440499991</v>
+        <v>0.05468726443203716</v>
       </c>
       <c r="D34">
-        <v>-0.0407934280468582</v>
+        <v>-0.00576504725405782</v>
       </c>
       <c r="E34">
-        <v>-0.009665864785983162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007679349400972786</v>
+      </c>
+      <c r="F34">
+        <v>-0.02329431362316239</v>
+      </c>
+      <c r="G34">
+        <v>-0.03223620042154116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01164046876012367</v>
+        <v>-0.01053256953777248</v>
       </c>
       <c r="C36">
-        <v>0.01510849152632208</v>
+        <v>0.006717775698908719</v>
       </c>
       <c r="D36">
-        <v>6.01435907126969e-05</v>
+        <v>0.01127310113252871</v>
       </c>
       <c r="E36">
-        <v>0.001104352435112284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00278987226601484</v>
+      </c>
+      <c r="F36">
+        <v>-0.0007871732090473312</v>
+      </c>
+      <c r="G36">
+        <v>-0.02116635155238182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006523959248637351</v>
+        <v>-0.03395184471473078</v>
       </c>
       <c r="C38">
-        <v>0.02693621706042989</v>
+        <v>0.02542662450436847</v>
       </c>
       <c r="D38">
-        <v>-0.01665821271067873</v>
+        <v>-0.008076855873326547</v>
       </c>
       <c r="E38">
-        <v>-0.008132563946424603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.006253958548893504</v>
+      </c>
+      <c r="F38">
+        <v>0.0006221030945528155</v>
+      </c>
+      <c r="G38">
+        <v>-0.0298531050695205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005775535631756509</v>
+        <v>-0.03200669595205759</v>
       </c>
       <c r="C39">
-        <v>0.01532616895875954</v>
+        <v>0.08213784899357911</v>
       </c>
       <c r="D39">
-        <v>-0.06466186072283389</v>
+        <v>0.01179274476264153</v>
       </c>
       <c r="E39">
-        <v>-0.02765553990747058</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0175825136143896</v>
+      </c>
+      <c r="F39">
+        <v>-0.04084403540026239</v>
+      </c>
+      <c r="G39">
+        <v>-0.02312713054518687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01038640176258728</v>
+        <v>-0.01950443985639792</v>
       </c>
       <c r="C40">
-        <v>0.02222549604421408</v>
+        <v>0.02994031625107907</v>
       </c>
       <c r="D40">
-        <v>-0.02975691330526292</v>
+        <v>0.01297782376816957</v>
       </c>
       <c r="E40">
-        <v>-0.02174107305355392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02020026957587086</v>
+      </c>
+      <c r="F40">
+        <v>-0.01957537269746159</v>
+      </c>
+      <c r="G40">
+        <v>-0.02308882291567916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.005016461288053402</v>
+        <v>-0.01170383054547531</v>
       </c>
       <c r="C41">
-        <v>0.01483929910714061</v>
+        <v>-0.00172491359820655</v>
       </c>
       <c r="D41">
-        <v>0.008720376546190484</v>
+        <v>0.003523642990242853</v>
       </c>
       <c r="E41">
-        <v>0.00481748830622384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003067350600031597</v>
+      </c>
+      <c r="F41">
+        <v>-0.001518719834353592</v>
+      </c>
+      <c r="G41">
+        <v>-0.01469739817394865</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09681540296342825</v>
+        <v>-0.03089157849644477</v>
       </c>
       <c r="C42">
-        <v>0.1491531497082266</v>
+        <v>0.05409277760754119</v>
       </c>
       <c r="D42">
-        <v>-0.1167722360885215</v>
+        <v>0.1015718247950814</v>
       </c>
       <c r="E42">
-        <v>-0.3412896503893919</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05407543232279833</v>
+      </c>
+      <c r="F42">
+        <v>0.1087741341857208</v>
+      </c>
+      <c r="G42">
+        <v>0.2170323144406847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.006142281390507957</v>
+        <v>-0.02829524889857577</v>
       </c>
       <c r="C43">
-        <v>0.01827078522691783</v>
+        <v>0.007941381499054188</v>
       </c>
       <c r="D43">
-        <v>0.008501264360555745</v>
+        <v>0.003855035117296599</v>
       </c>
       <c r="E43">
-        <v>-0.001677587400564456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005667230692510748</v>
+      </c>
+      <c r="F43">
+        <v>-6.660959721350616e-06</v>
+      </c>
+      <c r="G43">
+        <v>-0.0202824132739405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003144170485123807</v>
+        <v>-0.0155613988395203</v>
       </c>
       <c r="C44">
-        <v>0.004831761044802792</v>
+        <v>0.04712283532264786</v>
       </c>
       <c r="D44">
-        <v>-0.01503882717350118</v>
+        <v>0.006458304418597615</v>
       </c>
       <c r="E44">
-        <v>-0.002567350536602962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01913569535781925</v>
+      </c>
+      <c r="F44">
+        <v>-0.02384738484431505</v>
+      </c>
+      <c r="G44">
+        <v>-0.03520496664137991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01004680121238156</v>
+        <v>-0.003208422042329858</v>
       </c>
       <c r="C46">
-        <v>0.01218625781473598</v>
+        <v>0.0156916581159069</v>
       </c>
       <c r="D46">
-        <v>-0.01482043049411897</v>
+        <v>0.011504835825976</v>
       </c>
       <c r="E46">
-        <v>-0.005378780652920767</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0005949802720505514</v>
+      </c>
+      <c r="F46">
+        <v>0.009460190806262109</v>
+      </c>
+      <c r="G46">
+        <v>-0.02692187435270379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0008229104557483262</v>
+        <v>-0.07458030614603721</v>
       </c>
       <c r="C47">
-        <v>0.07099354449780026</v>
+        <v>0.06406615440189915</v>
       </c>
       <c r="D47">
-        <v>-0.03180808393936262</v>
+        <v>-0.005184310292912522</v>
       </c>
       <c r="E47">
-        <v>-0.01666201366206681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01219738225311883</v>
+      </c>
+      <c r="F47">
+        <v>0.06203192251027912</v>
+      </c>
+      <c r="G47">
+        <v>-0.02584544800833006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00246668119112314</v>
+        <v>-0.01901760230482902</v>
       </c>
       <c r="C48">
-        <v>0.02503555956941501</v>
+        <v>0.009942055948975756</v>
       </c>
       <c r="D48">
-        <v>-0.002895034326708294</v>
+        <v>0.0008410787722315278</v>
       </c>
       <c r="E48">
-        <v>-0.002197717087214537</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0002716524854692723</v>
+      </c>
+      <c r="F48">
+        <v>0.01307342926776178</v>
+      </c>
+      <c r="G48">
+        <v>-0.02451643090345579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001641640333477918</v>
+        <v>-0.07921616165200594</v>
       </c>
       <c r="C50">
-        <v>0.06236632736004717</v>
+        <v>0.06486980260979384</v>
       </c>
       <c r="D50">
-        <v>-0.04466996510976746</v>
+        <v>-0.004418833313564451</v>
       </c>
       <c r="E50">
-        <v>0.007777888851099534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01438456815675172</v>
+      </c>
+      <c r="F50">
+        <v>0.05758864789901245</v>
+      </c>
+      <c r="G50">
+        <v>-0.04572577177591781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006318372521642623</v>
+        <v>-0.01149867094782243</v>
       </c>
       <c r="C51">
-        <v>0.004024434535983871</v>
+        <v>0.02700146707948164</v>
       </c>
       <c r="D51">
-        <v>0.008134071180552023</v>
+        <v>0.008802281254290398</v>
       </c>
       <c r="E51">
-        <v>0.01591337550451546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.008838761630007184</v>
+      </c>
+      <c r="F51">
+        <v>-0.02937582769795244</v>
+      </c>
+      <c r="G51">
+        <v>-0.0491775197338944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003440725932282454</v>
+        <v>-0.0959479476958519</v>
       </c>
       <c r="C53">
-        <v>0.1051577087947168</v>
+        <v>0.07674515763616405</v>
       </c>
       <c r="D53">
-        <v>-0.07196895284674253</v>
+        <v>-0.006085831629480065</v>
       </c>
       <c r="E53">
-        <v>-0.02565167506984187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03675694623787415</v>
+      </c>
+      <c r="F53">
+        <v>0.06520440758647822</v>
+      </c>
+      <c r="G53">
+        <v>-0.02610373059133039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002208075764454075</v>
+        <v>-0.02852287276496434</v>
       </c>
       <c r="C54">
-        <v>0.02390446707277848</v>
+        <v>0.004783929520376459</v>
       </c>
       <c r="D54">
-        <v>0.005636859440536725</v>
+        <v>-0.003982476703029103</v>
       </c>
       <c r="E54">
-        <v>0.01516074485380199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.005471729145332293</v>
+      </c>
+      <c r="F54">
+        <v>0.002484529932882569</v>
+      </c>
+      <c r="G54">
+        <v>-0.03394186660828433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.001056183408606824</v>
+        <v>-0.07340697440177729</v>
       </c>
       <c r="C55">
-        <v>0.08021974136746909</v>
+        <v>0.07180080811378625</v>
       </c>
       <c r="D55">
-        <v>-0.06690230315913875</v>
+        <v>-0.004983657626794671</v>
       </c>
       <c r="E55">
-        <v>-0.03486941708223954</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02641767488295993</v>
+      </c>
+      <c r="F55">
+        <v>0.06260179639062459</v>
+      </c>
+      <c r="G55">
+        <v>-0.01181884155789001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0008450862600004178</v>
+        <v>-0.1458683119918168</v>
       </c>
       <c r="C56">
-        <v>0.1430750224461801</v>
+        <v>0.1005017047800586</v>
       </c>
       <c r="D56">
-        <v>-0.08686150690352779</v>
+        <v>-0.01435749116317765</v>
       </c>
       <c r="E56">
-        <v>-0.04201590105150892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03941002750341715</v>
+      </c>
+      <c r="F56">
+        <v>0.1005904340611742</v>
+      </c>
+      <c r="G56">
+        <v>-0.004572284664176755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02290530584963963</v>
+        <v>-0.0124225521468323</v>
       </c>
       <c r="C57">
-        <v>0.02869242521828898</v>
+        <v>0.01150561052666993</v>
       </c>
       <c r="D57">
-        <v>-0.02037049795415403</v>
+        <v>0.02374156203085131</v>
       </c>
       <c r="E57">
-        <v>-0.01045400714515994</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02831092773962546</v>
+      </c>
+      <c r="F57">
+        <v>-0.014908993180696</v>
+      </c>
+      <c r="G57">
+        <v>-0.02322745105862942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01134433921456697</v>
+        <v>-0.06741655259586384</v>
       </c>
       <c r="C58">
-        <v>0.09952041013819177</v>
+        <v>0.06535710383526308</v>
       </c>
       <c r="D58">
-        <v>0.04555441395741505</v>
+        <v>0.02537628461634182</v>
       </c>
       <c r="E58">
-        <v>-0.1459517149666076</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9387197449888092</v>
+      </c>
+      <c r="F58">
+        <v>0.2501122592013882</v>
+      </c>
+      <c r="G58">
+        <v>-0.0363945372313398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02053065289673811</v>
+        <v>-0.150074930989938</v>
       </c>
       <c r="C59">
-        <v>0.1388873885083388</v>
+        <v>-0.212950109992201</v>
       </c>
       <c r="D59">
-        <v>0.2073507406076668</v>
+        <v>-0.01624105084963896</v>
       </c>
       <c r="E59">
-        <v>0.07220716079594855</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01783687224440959</v>
+      </c>
+      <c r="F59">
+        <v>-0.008470979912687906</v>
+      </c>
+      <c r="G59">
+        <v>-0.02180571952348239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02806961184098735</v>
+        <v>-0.2935107081804188</v>
       </c>
       <c r="C60">
-        <v>0.1858671045653048</v>
+        <v>0.08559867372506161</v>
       </c>
       <c r="D60">
-        <v>0.01465916387078336</v>
+        <v>0.007369031549688527</v>
       </c>
       <c r="E60">
-        <v>-0.04090600897104508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.0236220853649463</v>
+      </c>
+      <c r="F60">
+        <v>-0.3851786861400051</v>
+      </c>
+      <c r="G60">
+        <v>0.07973464226882465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002889290857876164</v>
+        <v>-0.03321244437398376</v>
       </c>
       <c r="C61">
-        <v>0.02591567381584232</v>
+        <v>0.06232907262978877</v>
       </c>
       <c r="D61">
-        <v>-0.05009936674563283</v>
+        <v>0.005158007861643819</v>
       </c>
       <c r="E61">
-        <v>-0.0232603999764524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01327746516129275</v>
+      </c>
+      <c r="F61">
+        <v>-0.02520742247718283</v>
+      </c>
+      <c r="G61">
+        <v>-0.02610036455082895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007295164691917281</v>
+        <v>-0.01417010300334311</v>
       </c>
       <c r="C63">
-        <v>0.01139296288795275</v>
+        <v>0.02612284020568426</v>
       </c>
       <c r="D63">
-        <v>-0.01503388458154874</v>
+        <v>0.007843308803573401</v>
       </c>
       <c r="E63">
-        <v>-0.0001741410573565231</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007604127899172078</v>
+      </c>
+      <c r="F63">
+        <v>0.01084775894200618</v>
+      </c>
+      <c r="G63">
+        <v>-0.03287570573921586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.005830976673758277</v>
+        <v>-0.04720262314978631</v>
       </c>
       <c r="C64">
-        <v>0.04253549187968541</v>
+        <v>0.03549894098894599</v>
       </c>
       <c r="D64">
-        <v>-0.04003326482375277</v>
+        <v>0.004486684646172613</v>
       </c>
       <c r="E64">
-        <v>-0.02251739610708884</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.007191035242800037</v>
+      </c>
+      <c r="F64">
+        <v>-0.01233022268963815</v>
+      </c>
+      <c r="G64">
+        <v>-0.02130307747661724</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01752278539557484</v>
+        <v>-0.08114699835266427</v>
       </c>
       <c r="C65">
-        <v>0.0588464208734003</v>
+        <v>0.06683938363618858</v>
       </c>
       <c r="D65">
-        <v>-0.06137777732049881</v>
+        <v>0.01514033504490555</v>
       </c>
       <c r="E65">
-        <v>-0.02200630476694568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.007341061801625984</v>
+      </c>
+      <c r="F65">
+        <v>-0.04246703136410564</v>
+      </c>
+      <c r="G65">
+        <v>-0.01211851256342237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005584511747593887</v>
+        <v>-0.0534479811130357</v>
       </c>
       <c r="C66">
-        <v>0.03380147568487903</v>
+        <v>0.1149922975123882</v>
       </c>
       <c r="D66">
-        <v>-0.07331974218273475</v>
+        <v>0.01116966772979331</v>
       </c>
       <c r="E66">
-        <v>-0.04941701470307311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01918666461002104</v>
+      </c>
+      <c r="F66">
+        <v>-0.05087243597306477</v>
+      </c>
+      <c r="G66">
+        <v>-0.01550495570541219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001739470661656402</v>
+        <v>-0.05773663448081041</v>
       </c>
       <c r="C67">
-        <v>0.04439554558046373</v>
+        <v>0.02926403568329779</v>
       </c>
       <c r="D67">
-        <v>-0.01335569670536813</v>
+        <v>-0.006651272699510374</v>
       </c>
       <c r="E67">
-        <v>-0.009246493695022949</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001072668919020197</v>
+      </c>
+      <c r="F67">
+        <v>0.002360294429620804</v>
+      </c>
+      <c r="G67">
+        <v>-0.02911869616543303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0375129286749217</v>
+        <v>-0.1333430474931963</v>
       </c>
       <c r="C68">
-        <v>0.1203241915424174</v>
+        <v>-0.2715170364727427</v>
       </c>
       <c r="D68">
-        <v>0.2139501465572449</v>
+        <v>0.00155168121751586</v>
       </c>
       <c r="E68">
-        <v>0.08143317502221753</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0208478250310283</v>
+      </c>
+      <c r="F68">
+        <v>0.0149754675609499</v>
+      </c>
+      <c r="G68">
+        <v>-0.01751916348284064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003142680645219361</v>
+        <v>-0.07788027648656497</v>
       </c>
       <c r="C69">
-        <v>0.06076104957271403</v>
+        <v>0.06445485488875234</v>
       </c>
       <c r="D69">
-        <v>-0.03582136866497337</v>
+        <v>-0.0094458495024865</v>
       </c>
       <c r="E69">
-        <v>-0.01392489043252274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02929915285923771</v>
+      </c>
+      <c r="F69">
+        <v>0.03904609471859047</v>
+      </c>
+      <c r="G69">
+        <v>-0.0250357978297911</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.0261828271775005</v>
+        <v>-0.1287558563222845</v>
       </c>
       <c r="C71">
-        <v>0.111942551308589</v>
+        <v>-0.2274326963005718</v>
       </c>
       <c r="D71">
-        <v>0.1870581165091751</v>
+        <v>-0.00710348433122723</v>
       </c>
       <c r="E71">
-        <v>0.08180416241156495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02684697765855463</v>
+      </c>
+      <c r="F71">
+        <v>0.01890836394845898</v>
+      </c>
+      <c r="G71">
+        <v>-0.03433602310633977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002240186550263455</v>
+        <v>-0.08480713788080604</v>
       </c>
       <c r="C72">
-        <v>0.1046195940284609</v>
+        <v>0.07688157067762796</v>
       </c>
       <c r="D72">
-        <v>-0.08614442092015356</v>
+        <v>-0.00902724541333394</v>
       </c>
       <c r="E72">
-        <v>-0.06406002578400477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00807003619533843</v>
+      </c>
+      <c r="F72">
+        <v>-0.03998758515266625</v>
+      </c>
+      <c r="G72">
+        <v>0.001220099736524559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.0408683387182136</v>
+        <v>-0.4051203743291733</v>
       </c>
       <c r="C73">
-        <v>0.2313580156757529</v>
+        <v>0.1003841831354852</v>
       </c>
       <c r="D73">
-        <v>-0.01362723988961941</v>
+        <v>0.01204338567619638</v>
       </c>
       <c r="E73">
-        <v>-0.1193170580886897</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07573530385048256</v>
+      </c>
+      <c r="F73">
+        <v>-0.5336961017874902</v>
+      </c>
+      <c r="G73">
+        <v>0.1323427654316302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0006531611244671519</v>
+        <v>-0.1167597606004682</v>
       </c>
       <c r="C74">
-        <v>0.1314194705547763</v>
+        <v>0.1164120115238182</v>
       </c>
       <c r="D74">
-        <v>-0.08076157219435455</v>
+        <v>-0.01090780682383754</v>
       </c>
       <c r="E74">
-        <v>-0.04669658460136113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03678973196093296</v>
+      </c>
+      <c r="F74">
+        <v>0.06960858818558288</v>
+      </c>
+      <c r="G74">
+        <v>-0.02455075320982716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0005791976524752182</v>
+        <v>-0.2619297264465645</v>
       </c>
       <c r="C75">
-        <v>0.2837381941357109</v>
+        <v>0.1473166350262636</v>
       </c>
       <c r="D75">
-        <v>-0.1379159721710204</v>
+        <v>-0.03222758570885707</v>
       </c>
       <c r="E75">
-        <v>-0.09186986019404347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07668399868886391</v>
+      </c>
+      <c r="F75">
+        <v>0.2124840715548569</v>
+      </c>
+      <c r="G75">
+        <v>0.02535983577437455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.004285005260483936</v>
+        <v>-0.1376199676451267</v>
       </c>
       <c r="C76">
-        <v>0.2305691859884322</v>
+        <v>0.1219024859831724</v>
       </c>
       <c r="D76">
-        <v>-0.1426408960789381</v>
+        <v>-0.02225679479683253</v>
       </c>
       <c r="E76">
-        <v>-0.06096786742157419</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.06947802506978724</v>
+      </c>
+      <c r="F76">
+        <v>0.1339402804960544</v>
+      </c>
+      <c r="G76">
+        <v>-0.01283499143972874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01256897624481241</v>
+        <v>-0.06026818724696156</v>
       </c>
       <c r="C77">
-        <v>0.03559454207603303</v>
+        <v>0.06026698141799157</v>
       </c>
       <c r="D77">
-        <v>-0.04490256838524443</v>
+        <v>0.01249012502559514</v>
       </c>
       <c r="E77">
-        <v>-0.02247639678800753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0450512278684133</v>
+      </c>
+      <c r="F77">
+        <v>-0.01712112003834489</v>
+      </c>
+      <c r="G77">
+        <v>-0.04989434164779157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004565864774871048</v>
+        <v>-0.04005017773443992</v>
       </c>
       <c r="C78">
-        <v>0.03362347739543445</v>
+        <v>0.05140369088659008</v>
       </c>
       <c r="D78">
-        <v>-0.04285044962531204</v>
+        <v>0.005457891164824971</v>
       </c>
       <c r="E78">
-        <v>-0.01853783432867926</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01929789888177859</v>
+      </c>
+      <c r="F78">
+        <v>-0.03963392165808099</v>
+      </c>
+      <c r="G78">
+        <v>-0.03483112326979405</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01498651133071757</v>
+        <v>-0.06101318060196881</v>
       </c>
       <c r="C80">
-        <v>0.2058855124355566</v>
+        <v>0.0694383023922964</v>
       </c>
       <c r="D80">
-        <v>-0.4296732772099368</v>
+        <v>0.01168114306660427</v>
       </c>
       <c r="E80">
-        <v>0.8196387558530072</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.05799769365085139</v>
+      </c>
+      <c r="F80">
+        <v>-0.03223325509024391</v>
+      </c>
+      <c r="G80">
+        <v>-0.9065977176471876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.001401661760027715</v>
+        <v>-0.1449194034199616</v>
       </c>
       <c r="C81">
-        <v>0.1853686124001289</v>
+        <v>0.09428977844153429</v>
       </c>
       <c r="D81">
-        <v>-0.09686945420091525</v>
+        <v>-0.01620721051373569</v>
       </c>
       <c r="E81">
-        <v>-0.05248968228915066</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0451818065568238</v>
+      </c>
+      <c r="F81">
+        <v>0.135214916605169</v>
+      </c>
+      <c r="G81">
+        <v>-0.01811961464517245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05324552549216056</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03307284318039678</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.003191928118552523</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01543111538688978</v>
+      </c>
+      <c r="F82">
+        <v>0.002532292615737367</v>
+      </c>
+      <c r="G82">
+        <v>0.005622831916167842</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006503555067672247</v>
+        <v>-0.02821877230952645</v>
       </c>
       <c r="C83">
-        <v>0.03333002864926566</v>
+        <v>0.02007798536810213</v>
       </c>
       <c r="D83">
-        <v>-0.006559348094109146</v>
+        <v>0.005177660951855767</v>
       </c>
       <c r="E83">
-        <v>-0.00859546559319615</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0272334892764096</v>
+      </c>
+      <c r="F83">
+        <v>-0.02026321459184032</v>
+      </c>
+      <c r="G83">
+        <v>-0.02570683605554741</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008944810920340805</v>
+        <v>-0.2401527551958044</v>
       </c>
       <c r="C85">
-        <v>0.2412842635629689</v>
+        <v>0.1509293671311627</v>
       </c>
       <c r="D85">
-        <v>-0.1527203966109318</v>
+        <v>-0.02135073700023064</v>
       </c>
       <c r="E85">
-        <v>-0.1075219672441951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1238252638842746</v>
+      </c>
+      <c r="F85">
+        <v>0.2017247854924264</v>
+      </c>
+      <c r="G85">
+        <v>0.04932833613269998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.004225859323818978</v>
+        <v>-0.009640343125394191</v>
       </c>
       <c r="C86">
-        <v>-0.0006807428041576958</v>
+        <v>0.02113664751597795</v>
       </c>
       <c r="D86">
-        <v>0.001485839745968297</v>
+        <v>0.009635796312718384</v>
       </c>
       <c r="E86">
-        <v>-0.01220534025823411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03651185688459344</v>
+      </c>
+      <c r="F86">
+        <v>-0.01798247566387837</v>
+      </c>
+      <c r="G86">
+        <v>-0.05046552557023733</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006410511027651544</v>
+        <v>-0.01328176348631973</v>
       </c>
       <c r="C87">
-        <v>0.01688531843702651</v>
+        <v>0.02783631811176463</v>
       </c>
       <c r="D87">
-        <v>-0.02271928110851023</v>
+        <v>0.0119674104967438</v>
       </c>
       <c r="E87">
-        <v>-0.01250832681847469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08017205097832218</v>
+      </c>
+      <c r="F87">
+        <v>-0.05630116141547631</v>
+      </c>
+      <c r="G87">
+        <v>-0.04228534840694559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02573847860461142</v>
+        <v>-0.08651435871167072</v>
       </c>
       <c r="C88">
-        <v>0.04265172153775349</v>
+        <v>0.06027456747691304</v>
       </c>
       <c r="D88">
-        <v>-0.008781165345482256</v>
+        <v>0.02135814226504249</v>
       </c>
       <c r="E88">
-        <v>-0.007499109549264401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01436980769010615</v>
+      </c>
+      <c r="F88">
+        <v>0.008239059030520463</v>
+      </c>
+      <c r="G88">
+        <v>-0.0221197992451468</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.04965003008751186</v>
+        <v>-0.2181451220648264</v>
       </c>
       <c r="C89">
-        <v>0.2237529939157971</v>
+        <v>-0.369010621106879</v>
       </c>
       <c r="D89">
-        <v>0.3643454555480576</v>
+        <v>-0.008465746013402279</v>
       </c>
       <c r="E89">
-        <v>0.1264863466334551</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01407346505335932</v>
+      </c>
+      <c r="F89">
+        <v>0.03545304209090047</v>
+      </c>
+      <c r="G89">
+        <v>-0.03131683626829663</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03714378374462061</v>
+        <v>-0.1879735306002273</v>
       </c>
       <c r="C90">
-        <v>0.1436684106869499</v>
+        <v>-0.3372609249077397</v>
       </c>
       <c r="D90">
-        <v>0.3014326913957363</v>
+        <v>-0.01199826839231145</v>
       </c>
       <c r="E90">
-        <v>0.09474036486514685</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.001312909633925476</v>
+      </c>
+      <c r="F90">
+        <v>0.04784908094649717</v>
+      </c>
+      <c r="G90">
+        <v>-0.0003834198527837791</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0005312904917119009</v>
+        <v>-0.2096403069431607</v>
       </c>
       <c r="C91">
-        <v>0.261353263662482</v>
+        <v>0.1363503478886646</v>
       </c>
       <c r="D91">
-        <v>-0.1529811663080734</v>
+        <v>-0.02521303709724051</v>
       </c>
       <c r="E91">
-        <v>-0.09830846199192689</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08686504323735653</v>
+      </c>
+      <c r="F91">
+        <v>0.1897894089990529</v>
+      </c>
+      <c r="G91">
+        <v>0.0001586454825849454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.004147622037789386</v>
+        <v>-0.2064561853017865</v>
       </c>
       <c r="C92">
-        <v>0.2899747733720339</v>
+        <v>-0.2688035013962927</v>
       </c>
       <c r="D92">
-        <v>0.2691951829992418</v>
+        <v>-0.05398096370939951</v>
       </c>
       <c r="E92">
-        <v>0.09397051991784079</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.008604435821038472</v>
+      </c>
+      <c r="F92">
+        <v>0.1289268593495857</v>
+      </c>
+      <c r="G92">
+        <v>-0.06719634059186652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03563888141332169</v>
+        <v>-0.2128389335971575</v>
       </c>
       <c r="C93">
-        <v>0.197081381408873</v>
+        <v>-0.3336674186470702</v>
       </c>
       <c r="D93">
-        <v>0.3425976928970265</v>
+        <v>-0.01876403534610441</v>
       </c>
       <c r="E93">
-        <v>0.09059915759915964</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.007960801334722855</v>
+      </c>
+      <c r="F93">
+        <v>0.02562536809977657</v>
+      </c>
+      <c r="G93">
+        <v>6.798346899628979e-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02066922712930719</v>
+        <v>-0.281360993618826</v>
       </c>
       <c r="C94">
-        <v>0.3020419186571519</v>
+        <v>0.1598332736768803</v>
       </c>
       <c r="D94">
-        <v>-0.1110192998556736</v>
+        <v>-0.01504286907718605</v>
       </c>
       <c r="E94">
-        <v>-0.1312796075912064</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1236423555514614</v>
+      </c>
+      <c r="F94">
+        <v>0.3939745282573193</v>
+      </c>
+      <c r="G94">
+        <v>0.1489134182430798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006009760333016791</v>
+        <v>-0.08192351282170346</v>
       </c>
       <c r="C95">
-        <v>0.07667216217342671</v>
+        <v>0.07640037670413163</v>
       </c>
       <c r="D95">
-        <v>0.02554496686775813</v>
+        <v>-0.007207792487829294</v>
       </c>
       <c r="E95">
-        <v>-0.09179884098961782</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08045318167286601</v>
+      </c>
+      <c r="F95">
+        <v>-0.1578225557631025</v>
+      </c>
+      <c r="G95">
+        <v>0.06026612803577158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.00308201447377816</v>
+        <v>-0.2099455689743944</v>
       </c>
       <c r="C98">
-        <v>0.181149248039139</v>
+        <v>0.04628287984522397</v>
       </c>
       <c r="D98">
-        <v>0.006160518616465712</v>
+        <v>-0.01682475909030118</v>
       </c>
       <c r="E98">
-        <v>-0.05809337639479044</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07402023212046746</v>
+      </c>
+      <c r="F98">
+        <v>-0.240663792156725</v>
+      </c>
+      <c r="G98">
+        <v>0.03699549234527569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008242869353013117</v>
+        <v>-0.01386818068456252</v>
       </c>
       <c r="C101">
-        <v>0.02609031018292732</v>
+        <v>0.02064254031285194</v>
       </c>
       <c r="D101">
-        <v>-0.0058830193436543</v>
+        <v>0.008236140819719353</v>
       </c>
       <c r="E101">
-        <v>-0.00718409158429952</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03122343067373512</v>
+      </c>
+      <c r="F101">
+        <v>0.02780730935321797</v>
+      </c>
+      <c r="G101">
+        <v>-0.03534523431056896</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01405906686185554</v>
+        <v>-0.1244450642302984</v>
       </c>
       <c r="C102">
-        <v>0.1467696949027947</v>
+        <v>0.0815906117224163</v>
       </c>
       <c r="D102">
-        <v>-0.07085963048697186</v>
+        <v>-0.0002685097082546932</v>
       </c>
       <c r="E102">
-        <v>-0.04622872425505598</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03887858571509022</v>
+      </c>
+      <c r="F102">
+        <v>0.06058963507571336</v>
+      </c>
+      <c r="G102">
+        <v>0.006719684034261928</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002000413891965144</v>
+        <v>-0.004125134450798118</v>
       </c>
       <c r="C103">
-        <v>0.02210744056876282</v>
+        <v>0.005425021397086909</v>
       </c>
       <c r="D103">
-        <v>-0.02428195873302651</v>
+        <v>0.0006700718270488717</v>
       </c>
       <c r="E103">
-        <v>0.00605307470221866</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0004546572236453799</v>
+      </c>
+      <c r="F103">
+        <v>0.008340807296684341</v>
+      </c>
+      <c r="G103">
+        <v>-0.01854118661890765</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9858952570639937</v>
+        <v>-0.03904009198438525</v>
       </c>
       <c r="C104">
-        <v>-0.09458884235647684</v>
+        <v>-0.0443503588230344</v>
       </c>
       <c r="D104">
-        <v>-0.03544729081400592</v>
+        <v>0.9859824477867007</v>
       </c>
       <c r="E104">
-        <v>0.01349439009625216</v>
+        <v>0.05095400762271236</v>
+      </c>
+      <c r="F104">
+        <v>0.03648221491463215</v>
+      </c>
+      <c r="G104">
+        <v>-7.12549626683364e-05</v>
       </c>
     </row>
   </sheetData>
